--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>Site</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>Slide orientation: Label on right handside. Count 1 to 6 from left to right</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
   </si>
 </sst>
 </file>
@@ -412,7 +427,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,6 +493,15 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -486,6 +510,15 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -494,6 +527,15 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -502,6 +544,15 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -510,6 +561,15 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -517,6 +577,15 @@
       </c>
       <c r="B12" t="s">
         <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17834862-AB50-482B-A540-EA14BF3F5004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
   <si>
     <t>Site</t>
   </si>
@@ -57,9 +58,6 @@
     <t>SiCr</t>
   </si>
   <si>
-    <t>Slide orientation: Label on right handside. Count 1 to 6 from left to right</t>
-  </si>
-  <si>
     <t>S10</t>
   </si>
   <si>
@@ -73,16 +71,64 @@
   </si>
   <si>
     <t>O2</t>
+  </si>
+  <si>
+    <t>Pheidole hyatti</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>O11</t>
+  </si>
+  <si>
+    <t>Slide orientation: Label on right handside. Count 1 to 6 from left to right, when label is on left count 7 - 12</t>
+  </si>
+  <si>
+    <t>Aven</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>O8</t>
+  </si>
+  <si>
+    <t>O9</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>O6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -423,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -534,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -551,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -568,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -585,16 +631,323 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -605,7 +958,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17834862-AB50-482B-A540-EA14BF3F5004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2BB250-A4A2-4592-812C-FD6B9D0EBB28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="35">
   <si>
     <t>Site</t>
   </si>
@@ -113,6 +113,24 @@
   </si>
   <si>
     <t>O6</t>
+  </si>
+  <si>
+    <t>Mov</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>O12</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Sept</t>
   </si>
 </sst>
 </file>
@@ -470,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,6 +956,210 @@
       </c>
       <c r="E30" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2BB250-A4A2-4592-812C-FD6B9D0EBB28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41063F52-A1A1-451C-A87C-B0E28909501C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="43">
   <si>
     <t>Site</t>
   </si>
@@ -131,6 +131,30 @@
   </si>
   <si>
     <t>Sept</t>
+  </si>
+  <si>
+    <t>CaSl</t>
+  </si>
+  <si>
+    <t>O7</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>missing antenna</t>
+  </si>
+  <si>
+    <t>Messor andrei</t>
+  </si>
+  <si>
+    <t>SemiT</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>CaS</t>
   </si>
 </sst>
 </file>
@@ -488,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,6 +574,57 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
@@ -561,10 +636,10 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -578,10 +653,10 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -595,15 +670,15 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -612,15 +687,15 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -629,15 +704,15 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -646,10 +721,10 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -663,10 +738,10 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -680,10 +755,10 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -697,61 +772,61 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -765,10 +840,10 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -782,10 +857,10 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -799,61 +874,61 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -867,10 +942,10 @@
         <v>26</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -884,10 +959,10 @@
         <v>26</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -901,61 +976,61 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -969,10 +1044,10 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -986,13 +1061,13 @@
         <v>7</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1003,64 +1078,64 @@
         <v>7</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1068,16 +1143,16 @@
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1088,13 +1163,13 @@
         <v>34</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1105,60 +1180,624 @@
         <v>34</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
         <v>10</v>
       </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41">
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
         <v>11</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51">
         <v>12</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
         <v>24</v>
       </c>
     </row>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41063F52-A1A1-451C-A87C-B0E28909501C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3B896C-216E-4863-9ED8-C49DA8D31CEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="46">
   <si>
     <t>Site</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>CaS</t>
+  </si>
+  <si>
+    <t>PaPl</t>
+  </si>
+  <si>
+    <t>O10</t>
+  </si>
+  <si>
+    <t>Coal</t>
   </si>
 </sst>
 </file>
@@ -512,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F99" sqref="F98:F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1799,6 +1808,414 @@
       </c>
       <c r="E75" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3B896C-216E-4863-9ED8-C49DA8D31CEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2D034D-A5C1-4EE8-BB98-76539D2C9EAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="50">
   <si>
     <t>Site</t>
   </si>
@@ -46,9 +46,6 @@
     <t>S5</t>
   </si>
   <si>
-    <t>Lok</t>
-  </si>
-  <si>
     <t>Aug</t>
   </si>
   <si>
@@ -164,6 +161,21 @@
   </si>
   <si>
     <t>Coal</t>
+  </si>
+  <si>
+    <t>LoK</t>
+  </si>
+  <si>
+    <t>Dorymyrmex bicolor</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>can use old ones they were O5</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -521,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F99" sqref="F98:F99"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,30 +563,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -585,16 +597,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -602,101 +614,101 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -704,16 +716,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -721,135 +733,135 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -857,271 +869,271 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33">
         <v>8</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
         <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
@@ -1129,291 +1141,291 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45">
-        <v>6</v>
-      </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
         <v>39</v>
       </c>
-      <c r="B50" t="s">
-        <v>35</v>
-      </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
         <v>39</v>
       </c>
-      <c r="B51" t="s">
-        <v>35</v>
-      </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -1421,645 +1433,645 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
         <v>40</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57">
         <v>8</v>
       </c>
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57">
-        <v>6</v>
-      </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69">
         <v>8</v>
       </c>
-      <c r="B69" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69">
-        <v>6</v>
-      </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
         <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
         <v>43</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81">
         <v>8</v>
       </c>
-      <c r="B81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81">
-        <v>6</v>
-      </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
         <v>43</v>
-      </c>
-      <c r="C86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86">
-        <v>11</v>
-      </c>
-      <c r="E86" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
         <v>32</v>
@@ -2067,155 +2079,334 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93">
         <v>8</v>
       </c>
-      <c r="B93" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93">
-        <v>6</v>
-      </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
         <v>45</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="F98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
         <v>45</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" t="s">
+        <v>47</v>
+      </c>
+      <c r="G101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109">
         <v>12</v>
       </c>
-      <c r="E99" t="s">
-        <v>12</v>
+      <c r="E109" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2427,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2D034D-A5C1-4EE8-BB98-76539D2C9EAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B5D42-4FA4-49B9-A7F6-4E98370D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="72">
   <si>
     <t>Site</t>
   </si>
@@ -176,6 +177,72 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>highest.rtu</t>
+  </si>
+  <si>
+    <t>abun</t>
+  </si>
+  <si>
+    <t>Forelius pruinosis</t>
+  </si>
+  <si>
+    <t>Cyphomyrmex wheeleri</t>
+  </si>
+  <si>
+    <t>Messor pergandei</t>
+  </si>
+  <si>
+    <t>Dorymyrmex insanus</t>
+  </si>
+  <si>
+    <t>Myrmecocystus</t>
+  </si>
+  <si>
+    <t>Pogonomyrmex californicus</t>
+  </si>
+  <si>
+    <t>Pogonomyrmex californus</t>
+  </si>
+  <si>
+    <t>Dorymyrmex insanus?</t>
+  </si>
+  <si>
+    <t>Pheidole</t>
+  </si>
+  <si>
+    <t>Lok</t>
+  </si>
+  <si>
+    <t>Solenopsis xyloni - weird and yellow</t>
+  </si>
+  <si>
+    <t>Solenopsis molesta</t>
+  </si>
+  <si>
+    <t>Solenposis xyloni</t>
+  </si>
+  <si>
+    <t>Temnothorax andrei</t>
+  </si>
+  <si>
+    <t>Solenopsis aurea?</t>
+  </si>
+  <si>
+    <t>Dorymyrmex biocolor</t>
+  </si>
+  <si>
+    <t>Pheidole hyattii</t>
+  </si>
+  <si>
+    <t>Cas2</t>
   </si>
 </sst>
 </file>
@@ -533,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2409,6 +2476,183 @@
         <v>40</v>
       </c>
     </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>57</v>
+      </c>
+      <c r="B110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>57</v>
+      </c>
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C114" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2416,6 +2660,2112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE93E47B-FE66-4DDE-8775-2EAA6F3F5A82}">
+  <dimension ref="A1:E123"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>67</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" t="s">
+        <v>67</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>58</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>70</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>54</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" t="s">
+        <v>54</v>
+      </c>
+      <c r="E118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123">
+        <v>1114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B5D42-4FA4-49B9-A7F6-4E98370D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37765C7F-1F65-4CAA-AAA2-55B401F20DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId3"/>
+    <sheet name="Samples" sheetId="3" r:id="rId2"/>
+    <sheet name="Progress" sheetId="4" r:id="rId3"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="77">
   <si>
     <t>Site</t>
   </si>
@@ -191,12 +192,6 @@
     <t>abun</t>
   </si>
   <si>
-    <t>Forelius pruinosis</t>
-  </si>
-  <si>
-    <t>Cyphomyrmex wheeleri</t>
-  </si>
-  <si>
     <t>Messor pergandei</t>
   </si>
   <si>
@@ -206,43 +201,64 @@
     <t>Myrmecocystus</t>
   </si>
   <si>
-    <t>Pogonomyrmex californicus</t>
-  </si>
-  <si>
-    <t>Pogonomyrmex californus</t>
-  </si>
-  <si>
-    <t>Dorymyrmex insanus?</t>
-  </si>
-  <si>
     <t>Pheidole</t>
   </si>
   <si>
     <t>Lok</t>
   </si>
   <si>
-    <t>Solenopsis xyloni - weird and yellow</t>
-  </si>
-  <si>
-    <t>Solenopsis molesta</t>
-  </si>
-  <si>
-    <t>Solenposis xyloni</t>
-  </si>
-  <si>
-    <t>Temnothorax andrei</t>
-  </si>
-  <si>
-    <t>Solenopsis aurea?</t>
-  </si>
-  <si>
-    <t>Dorymyrmex biocolor</t>
-  </si>
-  <si>
-    <t>Pheidole hyattii</t>
-  </si>
-  <si>
     <t>Cas2</t>
+  </si>
+  <si>
+    <t>Dorymyrmexbicolor</t>
+  </si>
+  <si>
+    <t>Foreliuspruinosis</t>
+  </si>
+  <si>
+    <t>Solenopsisxyloni</t>
+  </si>
+  <si>
+    <t>Cyphomyrmexwheeleri</t>
+  </si>
+  <si>
+    <t>Messorpergandei</t>
+  </si>
+  <si>
+    <t>Pheidolehyatti</t>
+  </si>
+  <si>
+    <t>Dorymyrmexinsanus</t>
+  </si>
+  <si>
+    <t>Messorandrei</t>
+  </si>
+  <si>
+    <t>Pogonomyrmexcalifornicus</t>
+  </si>
+  <si>
+    <t>Dorymyrmexinsanus?</t>
+  </si>
+  <si>
+    <t>Solenopsisxyloni-weirdandyellow</t>
+  </si>
+  <si>
+    <t>Solenopsismolesta</t>
+  </si>
+  <si>
+    <t>Solenoposisxyloni</t>
+  </si>
+  <si>
+    <t>Temnothoraxandrei</t>
+  </si>
+  <si>
+    <t>Solenopsisaurea?</t>
+  </si>
+  <si>
+    <t>Mounted</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -272,7 +288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -280,12 +296,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
@@ -2478,7 +2515,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
@@ -2493,12 +2530,12 @@
         <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B111" t="s">
         <v>41</v>
@@ -2515,7 +2552,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B112" t="s">
         <v>41</v>
@@ -2532,7 +2569,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B113" t="s">
         <v>41</v>
@@ -2549,7 +2586,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B114" t="s">
         <v>41</v>
@@ -2566,7 +2603,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B115" t="s">
         <v>41</v>
@@ -2583,7 +2620,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B116" t="s">
         <v>41</v>
@@ -2661,10 +2698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE93E47B-FE66-4DDE-8775-2EAA6F3F5A82}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2697,7 +2734,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -2714,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>44</v>
@@ -2731,7 +2768,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>174</v>
@@ -2748,7 +2785,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2765,7 +2802,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2782,7 +2819,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -2799,7 +2836,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>64</v>
@@ -2816,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>138</v>
@@ -2833,7 +2870,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>17</v>
@@ -2850,7 +2887,7 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>75</v>
@@ -2867,10 +2904,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -2884,7 +2921,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>18</v>
@@ -2901,7 +2938,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2918,7 +2955,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -2935,7 +2972,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>390</v>
@@ -2952,7 +2989,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <v>1598</v>
@@ -2969,7 +3006,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2986,7 +3023,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>21</v>
@@ -3003,7 +3040,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>7</v>
@@ -3020,10 +3057,10 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E21">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -3037,10 +3074,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -3054,7 +3091,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>33</v>
@@ -3071,7 +3108,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>227</v>
@@ -3088,7 +3125,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>283</v>
@@ -3105,7 +3142,7 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>12</v>
@@ -3122,7 +3159,7 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -3139,7 +3176,7 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -3156,7 +3193,7 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>11</v>
@@ -3173,7 +3210,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>66</v>
@@ -3190,7 +3227,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>822</v>
@@ -3207,7 +3244,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -3224,7 +3261,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <v>53</v>
@@ -3241,7 +3278,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3258,7 +3295,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>1315</v>
@@ -3275,7 +3312,7 @@
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E36">
         <v>7</v>
@@ -3292,7 +3329,7 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>53</v>
@@ -3309,7 +3346,7 @@
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -3326,7 +3363,7 @@
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39">
         <v>72</v>
@@ -3343,10 +3380,10 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -3360,10 +3397,10 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -3374,13 +3411,13 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E42">
-        <v>798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -3394,7 +3431,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3411,10 +3448,10 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -3422,16 +3459,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E45">
-        <v>263</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -3445,10 +3482,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -3462,10 +3499,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E47">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -3479,10 +3516,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48">
         <v>61</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -3496,10 +3533,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -3510,13 +3547,13 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E50">
-        <v>184</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -3530,10 +3567,10 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -3547,10 +3584,10 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E52">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -3567,7 +3604,7 @@
         <v>57</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -3581,10 +3618,10 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E54">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -3598,10 +3635,10 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E55">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -3612,13 +3649,13 @@
         <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E56">
-        <v>200</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -3632,10 +3669,10 @@
         <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E57">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -3649,10 +3686,10 @@
         <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -3660,16 +3697,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E59">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -3677,16 +3714,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E60">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -3694,16 +3731,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -3711,16 +3748,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E62">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -3728,16 +3765,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E63">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -3745,7 +3782,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
         <v>25</v>
@@ -3754,7 +3791,7 @@
         <v>56</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -3762,13 +3799,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3779,16 +3816,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
         <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -3796,16 +3833,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E67">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -3813,16 +3850,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
         <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -3830,7 +3867,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
         <v>33</v>
@@ -3847,16 +3884,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
         <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -3864,16 +3901,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
         <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -3881,16 +3918,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E72">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -3904,10 +3941,10 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E73">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -3921,10 +3958,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -3935,13 +3972,13 @@
         <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E75">
-        <v>488</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -3955,10 +3992,10 @@
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E76">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -3972,10 +4009,10 @@
         <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -3989,10 +4026,10 @@
         <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E78">
-        <v>305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -4003,13 +4040,13 @@
         <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -4023,10 +4060,10 @@
         <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E80">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -4043,7 +4080,7 @@
         <v>56</v>
       </c>
       <c r="E81">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -4057,10 +4094,10 @@
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E82">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -4074,10 +4111,10 @@
         <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -4091,10 +4128,10 @@
         <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -4102,16 +4139,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E85">
-        <v>512</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -4125,10 +4162,10 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E86">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -4142,10 +4179,10 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E87">
-        <v>251</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -4159,7 +4196,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E88">
         <v>143</v>
@@ -4176,10 +4213,10 @@
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -4190,13 +4227,13 @@
         <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
         <v>67</v>
       </c>
       <c r="E90">
-        <v>4</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -4210,10 +4247,10 @@
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E91">
-        <v>1945</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -4227,10 +4264,10 @@
         <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -4244,10 +4281,10 @@
         <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E93">
-        <v>6</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -4261,10 +4298,10 @@
         <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E94">
-        <v>418</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -4278,10 +4315,10 @@
         <v>25</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E95">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -4292,13 +4329,13 @@
         <v>42</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D96" t="s">
         <v>67</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -4312,10 +4349,10 @@
         <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -4329,10 +4366,10 @@
         <v>33</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="E98">
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -4346,10 +4383,10 @@
         <v>33</v>
       </c>
       <c r="D99" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -4363,10 +4400,10 @@
         <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E100">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -4374,16 +4411,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -4397,7 +4434,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E102">
         <v>3</v>
@@ -4414,10 +4451,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -4431,10 +4468,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -4445,13 +4482,13 @@
         <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E105">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -4462,13 +4499,13 @@
         <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -4479,13 +4516,13 @@
         <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E107">
-        <v>28</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -4496,13 +4533,13 @@
         <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D108" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -4513,13 +4550,13 @@
         <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E109">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -4527,16 +4564,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E110">
-        <v>262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -4544,16 +4581,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E111">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -4561,16 +4598,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E112">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -4584,10 +4621,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -4598,13 +4635,13 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -4615,13 +4652,13 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E115">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -4632,13 +4669,13 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E116">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -4652,10 +4689,10 @@
         <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E117">
-        <v>12</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -4669,10 +4706,10 @@
         <v>25</v>
       </c>
       <c r="D118" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E118">
-        <v>17</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -4683,13 +4720,13 @@
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E119">
-        <v>9</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -4700,63 +4737,12 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E120">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123">
         <v>1114</v>
       </c>
     </row>
@@ -4766,6 +4752,556 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D154C06-54F5-4C5A-8BB8-E0C52DF05933}">
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37765C7F-1F65-4CAA-AAA2-55B401F20DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720DD3C3-2713-4686-BCD8-44E82B1AC14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2700,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE93E47B-FE66-4DDE-8775-2EAA6F3F5A82}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4755,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D154C06-54F5-4C5A-8BB8-E0C52DF05933}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720DD3C3-2713-4686-BCD8-44E82B1AC14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825086C3-CB47-4910-BB30-1A9F12E43BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="81">
   <si>
     <t>Site</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>can't find vial</t>
+  </si>
+  <si>
+    <t>Forelius pruinosis</t>
+  </si>
+  <si>
+    <t>missing a vial, if found can add 2</t>
+  </si>
+  <si>
+    <t>Cyphomyrmex wheeleri</t>
   </si>
 </sst>
 </file>
@@ -318,11 +330,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,2057 +650,2857 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
         <v>11</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
         <v>3</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
         <v>4</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30">
         <v>5</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>28</v>
       </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>8</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>9</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>28</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>33</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>10</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>33</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>11</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
         <v>14</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>33</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>12</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
         <v>34</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38">
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
         <v>34</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39">
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
         <v>2</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
         <v>34</v>
       </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40">
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
         <v>34</v>
       </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41">
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
         <v>34</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42">
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
         <v>5</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>36</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>34</v>
       </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45">
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
         <v>8</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>34</v>
       </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46">
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
         <v>9</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>34</v>
       </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47">
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
         <v>10</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>34</v>
       </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48">
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
         <v>11</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
         <v>38</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>34</v>
       </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49">
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
         <v>12</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
         <v>39</v>
       </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50">
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
         <v>1</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
         <v>39</v>
       </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51">
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51">
         <v>2</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
         <v>39</v>
       </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52">
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
         <v>3</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
         <v>39</v>
       </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53">
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53">
         <v>4</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
         <v>39</v>
       </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54">
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54">
         <v>5</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
         <v>39</v>
       </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
         <v>14</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>39</v>
       </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>39</v>
       </c>
-      <c r="C57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57">
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57">
         <v>8</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
         <v>14</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>39</v>
       </c>
-      <c r="C58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58">
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58">
         <v>9</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
         <v>14</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>39</v>
       </c>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59">
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59">
         <v>10</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
         <v>14</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>39</v>
       </c>
-      <c r="C60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60">
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60">
         <v>11</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
         <v>14</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>39</v>
       </c>
-      <c r="C61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61">
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61">
         <v>12</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62">
+        <v>41</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
         <v>1</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
         <v>2</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
         <v>3</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65">
         <v>4</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
         <v>5</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67">
-        <v>6</v>
-      </c>
-      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
         <v>14</v>
       </c>
-      <c r="B68" t="s">
-        <v>41</v>
-      </c>
       <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68">
-        <v>7</v>
-      </c>
-      <c r="E68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="B69" t="s">
-        <v>41</v>
-      </c>
       <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
         <v>8</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
         <v>14</v>
       </c>
-      <c r="B70" t="s">
-        <v>41</v>
-      </c>
       <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
         <v>9</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="B71" t="s">
-        <v>41</v>
-      </c>
       <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71">
+        <v>41</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
         <v>10</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
         <v>14</v>
       </c>
-      <c r="B72" t="s">
-        <v>41</v>
-      </c>
       <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
         <v>11</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
         <v>14</v>
       </c>
-      <c r="B73" t="s">
-        <v>41</v>
-      </c>
       <c r="C73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73">
+        <v>41</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
         <v>12</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
         <v>42</v>
       </c>
-      <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74">
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
         <v>1</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
         <v>42</v>
       </c>
-      <c r="C75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75">
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
         <v>2</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
         <v>42</v>
       </c>
-      <c r="C76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76">
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
         <v>3</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
         <v>42</v>
       </c>
-      <c r="C77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77">
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
         <v>4</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
         <v>42</v>
       </c>
-      <c r="C78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78">
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
         <v>5</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>7</v>
-      </c>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
         <v>42</v>
       </c>
-      <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79">
-        <v>6</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
         <v>14</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>42</v>
       </c>
-      <c r="C80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
         <v>14</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>42</v>
       </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81">
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
         <v>8</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
         <v>14</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>42</v>
       </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82">
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
         <v>9</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
         <v>14</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>42</v>
       </c>
-      <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83">
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83">
         <v>10</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
         <v>14</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>42</v>
       </c>
-      <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84">
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
         <v>11</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
         <v>14</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>42</v>
       </c>
-      <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85">
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
         <v>12</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
         <v>44</v>
       </c>
-      <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86">
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
         <v>1</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>7</v>
-      </c>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
         <v>44</v>
       </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87">
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
         <v>2</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>7</v>
-      </c>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
         <v>44</v>
       </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88">
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
         <v>3</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>7</v>
-      </c>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
         <v>44</v>
       </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89">
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89">
         <v>4</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>7</v>
-      </c>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
         <v>44</v>
       </c>
-      <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90">
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
         <v>5</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>7</v>
-      </c>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
         <v>44</v>
       </c>
-      <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91">
-        <v>6</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
         <v>14</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>44</v>
       </c>
-      <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92">
-        <v>7</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
         <v>14</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>44</v>
       </c>
-      <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93">
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
         <v>8</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
         <v>14</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>44</v>
       </c>
-      <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94">
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
         <v>9</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
         <v>14</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>44</v>
       </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95">
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
         <v>10</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
         <v>14</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>44</v>
       </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96">
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
         <v>11</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
         <v>14</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>44</v>
       </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97">
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
         <v>12</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>7</v>
-      </c>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
         <v>45</v>
       </c>
-      <c r="C98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98">
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98">
         <v>1</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>23</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>7</v>
-      </c>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
         <v>45</v>
       </c>
-      <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99">
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
         <v>2</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>7</v>
-      </c>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
         <v>45</v>
       </c>
-      <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100">
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
         <v>3</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>7</v>
-      </c>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
         <v>45</v>
       </c>
-      <c r="C101" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101">
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101">
         <v>4</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>40</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>47</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>7</v>
-      </c>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
         <v>45</v>
       </c>
-      <c r="C102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102">
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102">
         <v>5</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>7</v>
-      </c>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
         <v>45</v>
       </c>
-      <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103">
-        <v>6</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
         <v>46</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>45</v>
       </c>
-      <c r="C104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104">
-        <v>7</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
         <v>46</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>45</v>
       </c>
-      <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105">
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
         <v>8</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
         <v>46</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>45</v>
       </c>
-      <c r="C106" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106">
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106">
         <v>9</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
         <v>46</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>45</v>
       </c>
-      <c r="C107" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107">
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
         <v>10</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
         <v>46</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>45</v>
       </c>
-      <c r="C108" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108">
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108">
         <v>11</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
         <v>46</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>45</v>
       </c>
-      <c r="C109" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109">
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109">
         <v>12</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
         <v>55</v>
       </c>
-      <c r="B110" t="s">
-        <v>41</v>
-      </c>
       <c r="C110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110">
+        <v>41</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110">
         <v>1</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>27</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
         <v>55</v>
       </c>
-      <c r="B111" t="s">
-        <v>41</v>
-      </c>
       <c r="C111" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111">
+        <v>41</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111">
         <v>2</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
         <v>55</v>
       </c>
-      <c r="B112" t="s">
-        <v>41</v>
-      </c>
       <c r="C112" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112">
+        <v>41</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
         <v>3</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
         <v>55</v>
       </c>
-      <c r="B113" t="s">
-        <v>41</v>
-      </c>
       <c r="C113" t="s">
-        <v>25</v>
-      </c>
-      <c r="D113">
+        <v>41</v>
+      </c>
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113">
         <v>4</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
         <v>55</v>
       </c>
-      <c r="B114" t="s">
-        <v>41</v>
-      </c>
       <c r="C114" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114">
+        <v>41</v>
+      </c>
+      <c r="D114" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114">
         <v>5</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
         <v>55</v>
       </c>
-      <c r="B115" t="s">
-        <v>41</v>
-      </c>
       <c r="C115" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115">
-        <v>6</v>
-      </c>
-      <c r="E115" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
         <v>54</v>
       </c>
-      <c r="B116" t="s">
-        <v>41</v>
-      </c>
       <c r="C116" t="s">
-        <v>25</v>
-      </c>
-      <c r="D116">
-        <v>7</v>
-      </c>
-      <c r="E116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B117" t="s">
-        <v>41</v>
-      </c>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117">
+        <v>41</v>
+      </c>
+      <c r="D117" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B118" t="s">
-        <v>41</v>
-      </c>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C118" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118">
+        <v>41</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B119" t="s">
-        <v>41</v>
-      </c>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C119" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119">
+        <v>41</v>
+      </c>
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B120" t="s">
-        <v>41</v>
-      </c>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C120" t="s">
-        <v>25</v>
-      </c>
-      <c r="D120">
+        <v>41</v>
+      </c>
+      <c r="D120" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120">
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B121" t="s">
-        <v>41</v>
-      </c>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C121" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121">
+        <v>41</v>
+      </c>
+      <c r="D121" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121">
         <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>46</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>46</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>78</v>
+      </c>
+      <c r="C132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>78</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>78</v>
+      </c>
+      <c r="C135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137">
+        <v>7</v>
+      </c>
+      <c r="F137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>46</v>
+      </c>
+      <c r="C138" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138" t="s">
+        <v>33</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>46</v>
+      </c>
+      <c r="C139" t="s">
+        <v>41</v>
+      </c>
+      <c r="D139" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" t="s">
+        <v>33</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>46</v>
+      </c>
+      <c r="C143" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>78</v>
+      </c>
+      <c r="C144" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>78</v>
+      </c>
+      <c r="C146" t="s">
+        <v>41</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>78</v>
+      </c>
+      <c r="C147" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>78</v>
+      </c>
+      <c r="C148" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>78</v>
+      </c>
+      <c r="C149" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149">
+        <v>12</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>38</v>
+      </c>
+      <c r="C151" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>38</v>
+      </c>
+      <c r="C152" t="s">
+        <v>41</v>
+      </c>
+      <c r="D152" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
+      <c r="F153" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" t="s">
+        <v>41</v>
+      </c>
+      <c r="D155" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155">
+        <v>6</v>
+      </c>
+      <c r="F155" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>56</v>
+      </c>
+      <c r="C156" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>7</v>
+      </c>
+      <c r="F156" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>56</v>
+      </c>
+      <c r="C157" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+      <c r="F157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" t="s">
+        <v>41</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159">
+        <v>10</v>
+      </c>
+      <c r="F159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>56</v>
+      </c>
+      <c r="C160" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161">
+        <v>12</v>
+      </c>
+      <c r="F161" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2700,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE93E47B-FE66-4DDE-8775-2EAA6F3F5A82}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4753,10 +5566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D154C06-54F5-4C5A-8BB8-E0C52DF05933}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4764,7 +5577,7 @@
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4775,39 +5588,54 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -4818,7 +5646,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -4829,15 +5657,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -4848,31 +5679,40 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -4880,7 +5720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4891,7 +5731,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -4902,7 +5742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825086C3-CB47-4910-BB30-1A9F12E43BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB40E9D-1DC8-4D49-BD27-C1875F10B698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="82">
   <si>
     <t>Site</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Cyphomyrmex wheeleri</t>
+  </si>
+  <si>
+    <t>Pogonomyrmex californicus</t>
   </si>
 </sst>
 </file>
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1205,7 +1208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>14</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>14</v>
       </c>
@@ -1290,7 +1293,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1313,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1333,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
@@ -1341,7 +1353,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1373,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
@@ -1378,7 +1396,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1416,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -1412,7 +1436,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1</v>
+      </c>
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -1429,7 +1456,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>
@@ -1446,7 +1476,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1</v>
+      </c>
       <c r="B47" t="s">
         <v>38</v>
       </c>
@@ -1463,7 +1496,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
       <c r="B48" t="s">
         <v>38</v>
       </c>
@@ -1480,7 +1516,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
       <c r="B49" t="s">
         <v>38</v>
       </c>
@@ -1497,7 +1536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>7</v>
       </c>
@@ -1548,7 +1587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>7</v>
       </c>
@@ -1565,7 +1604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>7</v>
       </c>
@@ -1582,7 +1621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>7</v>
       </c>
@@ -1599,7 +1638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +1655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>14</v>
       </c>
@@ -1633,7 +1672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>14</v>
       </c>
@@ -1650,7 +1689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>14</v>
       </c>
@@ -1684,7 +1723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>14</v>
       </c>
@@ -1701,7 +1740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>7</v>
       </c>
@@ -1718,7 +1757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>7</v>
       </c>
@@ -1735,7 +1774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>7</v>
       </c>
@@ -3501,6 +3540,486 @@
       </c>
       <c r="F161" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162" t="s">
+        <v>46</v>
+      </c>
+      <c r="C162" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
+        <v>46</v>
+      </c>
+      <c r="C163" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s">
+        <v>46</v>
+      </c>
+      <c r="C164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165" t="s">
+        <v>46</v>
+      </c>
+      <c r="C165" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165">
+        <v>4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166" t="s">
+        <v>46</v>
+      </c>
+      <c r="C166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167" t="s">
+        <v>46</v>
+      </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
+        <v>81</v>
+      </c>
+      <c r="C168" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" t="s">
+        <v>25</v>
+      </c>
+      <c r="E168">
+        <v>7</v>
+      </c>
+      <c r="F168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169" t="s">
+        <v>81</v>
+      </c>
+      <c r="C169" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169">
+        <v>8</v>
+      </c>
+      <c r="F169" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
+        <v>81</v>
+      </c>
+      <c r="C170" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
+        <v>81</v>
+      </c>
+      <c r="C171" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171">
+        <v>10</v>
+      </c>
+      <c r="F171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172" t="s">
+        <v>81</v>
+      </c>
+      <c r="C172" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172">
+        <v>11</v>
+      </c>
+      <c r="F172" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
+        <v>81</v>
+      </c>
+      <c r="C173" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173">
+        <v>12</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>3</v>
+      </c>
+      <c r="B175" t="s">
+        <v>38</v>
+      </c>
+      <c r="C175" t="s">
+        <v>34</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>3</v>
+      </c>
+      <c r="B176" t="s">
+        <v>38</v>
+      </c>
+      <c r="C176" t="s">
+        <v>34</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>38</v>
+      </c>
+      <c r="C177" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+      <c r="F177" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+      <c r="F178" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>3</v>
+      </c>
+      <c r="B179" t="s">
+        <v>38</v>
+      </c>
+      <c r="C179" t="s">
+        <v>34</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179">
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180">
+        <v>7</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>8</v>
+      </c>
+      <c r="F181" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>3</v>
+      </c>
+      <c r="B182" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>9</v>
+      </c>
+      <c r="F182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>3</v>
+      </c>
+      <c r="B183" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" t="s">
+        <v>34</v>
+      </c>
+      <c r="D183" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183">
+        <v>10</v>
+      </c>
+      <c r="F183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
+        <v>56</v>
+      </c>
+      <c r="C184" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184">
+        <v>11</v>
+      </c>
+      <c r="F184" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>3</v>
+      </c>
+      <c r="B185" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185">
+        <v>12</v>
+      </c>
+      <c r="F185" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3513,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE93E47B-FE66-4DDE-8775-2EAA6F3F5A82}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5568,8 +6087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D154C06-54F5-4C5A-8BB8-E0C52DF05933}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5719,6 +6238,9 @@
       <c r="B13" t="s">
         <v>56</v>
       </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -5749,6 +6271,9 @@
       <c r="B16" t="s">
         <v>60</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -5776,6 +6301,9 @@
       <c r="B19" t="s">
         <v>56</v>
       </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -5791,6 +6319,9 @@
       </c>
       <c r="B21" t="s">
         <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB40E9D-1DC8-4D49-BD27-C1875F10B698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F3EE6-2607-477F-8670-6C6E3C6E1634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Progress" sheetId="4" r:id="rId3"/>
     <sheet name="Metadata" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="83">
   <si>
     <t>Site</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Pogonomyrmex californicus</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -653,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177"/>
+    <sheetView topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="F233" sqref="F233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4022,6 +4025,966 @@
         <v>32</v>
       </c>
     </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188" t="s">
+        <v>55</v>
+      </c>
+      <c r="C188" t="s">
+        <v>34</v>
+      </c>
+      <c r="D188" t="s">
+        <v>25</v>
+      </c>
+      <c r="E188">
+        <v>7</v>
+      </c>
+      <c r="F188" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="B189" t="s">
+        <v>55</v>
+      </c>
+      <c r="C189" t="s">
+        <v>34</v>
+      </c>
+      <c r="D189" t="s">
+        <v>25</v>
+      </c>
+      <c r="E189">
+        <v>8</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>55</v>
+      </c>
+      <c r="C190" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" t="s">
+        <v>25</v>
+      </c>
+      <c r="E190">
+        <v>9</v>
+      </c>
+      <c r="F190" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>55</v>
+      </c>
+      <c r="C191" t="s">
+        <v>34</v>
+      </c>
+      <c r="D191" t="s">
+        <v>25</v>
+      </c>
+      <c r="E191">
+        <v>10</v>
+      </c>
+      <c r="F191" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192" t="s">
+        <v>55</v>
+      </c>
+      <c r="C192" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" t="s">
+        <v>25</v>
+      </c>
+      <c r="E192">
+        <v>11</v>
+      </c>
+      <c r="F192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193" t="s">
+        <v>55</v>
+      </c>
+      <c r="C193" t="s">
+        <v>34</v>
+      </c>
+      <c r="D193" t="s">
+        <v>25</v>
+      </c>
+      <c r="E193">
+        <v>12</v>
+      </c>
+      <c r="F193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
+        <v>46</v>
+      </c>
+      <c r="C194" t="s">
+        <v>44</v>
+      </c>
+      <c r="D194" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>46</v>
+      </c>
+      <c r="C195" t="s">
+        <v>44</v>
+      </c>
+      <c r="D195" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196" t="s">
+        <v>46</v>
+      </c>
+      <c r="C196" t="s">
+        <v>44</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
+        <v>46</v>
+      </c>
+      <c r="C197" t="s">
+        <v>44</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>46</v>
+      </c>
+      <c r="C198" t="s">
+        <v>44</v>
+      </c>
+      <c r="D198" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199" t="s">
+        <v>46</v>
+      </c>
+      <c r="C199" t="s">
+        <v>44</v>
+      </c>
+      <c r="D199" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s">
+        <v>80</v>
+      </c>
+      <c r="C200" t="s">
+        <v>44</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201" t="s">
+        <v>80</v>
+      </c>
+      <c r="C201" t="s">
+        <v>44</v>
+      </c>
+      <c r="D201" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201">
+        <v>8</v>
+      </c>
+      <c r="F201" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202" t="s">
+        <v>80</v>
+      </c>
+      <c r="C202" t="s">
+        <v>44</v>
+      </c>
+      <c r="D202" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202">
+        <v>9</v>
+      </c>
+      <c r="F202" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" t="s">
+        <v>44</v>
+      </c>
+      <c r="D203" t="s">
+        <v>25</v>
+      </c>
+      <c r="E203">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" t="s">
+        <v>58</v>
+      </c>
+      <c r="D205" t="s">
+        <v>25</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" t="s">
+        <v>58</v>
+      </c>
+      <c r="D206" t="s">
+        <v>33</v>
+      </c>
+      <c r="E206">
+        <v>3</v>
+      </c>
+      <c r="F206" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
+        <v>56</v>
+      </c>
+      <c r="C207" t="s">
+        <v>58</v>
+      </c>
+      <c r="D207" t="s">
+        <v>25</v>
+      </c>
+      <c r="E207">
+        <v>4</v>
+      </c>
+      <c r="F207" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>56</v>
+      </c>
+      <c r="C208" t="s">
+        <v>58</v>
+      </c>
+      <c r="D208" t="s">
+        <v>33</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+      <c r="F208" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
+        <v>56</v>
+      </c>
+      <c r="C209" t="s">
+        <v>58</v>
+      </c>
+      <c r="D209" t="s">
+        <v>33</v>
+      </c>
+      <c r="E209">
+        <v>6</v>
+      </c>
+      <c r="F209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
+        <v>54</v>
+      </c>
+      <c r="C210" t="s">
+        <v>58</v>
+      </c>
+      <c r="D210" t="s">
+        <v>25</v>
+      </c>
+      <c r="E210">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
+        <v>54</v>
+      </c>
+      <c r="C211" t="s">
+        <v>58</v>
+      </c>
+      <c r="D211" t="s">
+        <v>25</v>
+      </c>
+      <c r="E211">
+        <v>8</v>
+      </c>
+      <c r="F211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s">
+        <v>54</v>
+      </c>
+      <c r="C212" t="s">
+        <v>58</v>
+      </c>
+      <c r="D212" t="s">
+        <v>25</v>
+      </c>
+      <c r="E212">
+        <v>9</v>
+      </c>
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
+        <v>54</v>
+      </c>
+      <c r="C213" t="s">
+        <v>58</v>
+      </c>
+      <c r="D213" t="s">
+        <v>25</v>
+      </c>
+      <c r="E213">
+        <v>10</v>
+      </c>
+      <c r="F213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>2</v>
+      </c>
+      <c r="B214" t="s">
+        <v>54</v>
+      </c>
+      <c r="C214" t="s">
+        <v>58</v>
+      </c>
+      <c r="D214" t="s">
+        <v>33</v>
+      </c>
+      <c r="E214">
+        <v>11</v>
+      </c>
+      <c r="F214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s">
+        <v>54</v>
+      </c>
+      <c r="C215" t="s">
+        <v>58</v>
+      </c>
+      <c r="D215" t="s">
+        <v>33</v>
+      </c>
+      <c r="E215">
+        <v>12</v>
+      </c>
+      <c r="F215" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
+        <v>46</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
+        <v>46</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>2</v>
+      </c>
+      <c r="B218" t="s">
+        <v>46</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218">
+        <v>3</v>
+      </c>
+      <c r="F218" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
+        <v>46</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219">
+        <v>4</v>
+      </c>
+      <c r="F219" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
+        <v>46</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220">
+        <v>5</v>
+      </c>
+      <c r="F220" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221" t="s">
+        <v>46</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>6</v>
+      </c>
+      <c r="E221">
+        <v>6</v>
+      </c>
+      <c r="F221" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222" t="s">
+        <v>56</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222">
+        <v>7</v>
+      </c>
+      <c r="F222" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223" t="s">
+        <v>56</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>6</v>
+      </c>
+      <c r="E223">
+        <v>8</v>
+      </c>
+      <c r="F223" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224" t="s">
+        <v>56</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224">
+        <v>9</v>
+      </c>
+      <c r="F224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
+        <v>56</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>33</v>
+      </c>
+      <c r="E225">
+        <v>10</v>
+      </c>
+      <c r="F225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
+        <v>56</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>33</v>
+      </c>
+      <c r="E226">
+        <v>11</v>
+      </c>
+      <c r="F226" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
+        <v>56</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>33</v>
+      </c>
+      <c r="E227">
+        <v>12</v>
+      </c>
+      <c r="F227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>3</v>
+      </c>
+      <c r="B228" t="s">
+        <v>54</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>33</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229" t="s">
+        <v>54</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>33</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>3</v>
+      </c>
+      <c r="B230" t="s">
+        <v>54</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>33</v>
+      </c>
+      <c r="E230">
+        <v>3</v>
+      </c>
+      <c r="F230" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>3</v>
+      </c>
+      <c r="B231" t="s">
+        <v>54</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>33</v>
+      </c>
+      <c r="E231">
+        <v>4</v>
+      </c>
+      <c r="F231" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>3</v>
+      </c>
+      <c r="B232" t="s">
+        <v>54</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>33</v>
+      </c>
+      <c r="E232">
+        <v>5</v>
+      </c>
+      <c r="F232" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>3</v>
+      </c>
+      <c r="B233" t="s">
+        <v>54</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>33</v>
+      </c>
+      <c r="E233">
+        <v>6</v>
+      </c>
+      <c r="F233" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4032,8 +4995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE93E47B-FE66-4DDE-8775-2EAA6F3F5A82}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6087,8 +7050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D154C06-54F5-4C5A-8BB8-E0C52DF05933}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6282,6 +7245,9 @@
       <c r="B17" t="s">
         <v>66</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -6312,6 +7278,9 @@
       <c r="B20" t="s">
         <v>65</v>
       </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -6342,6 +7311,9 @@
       <c r="B23" t="s">
         <v>63</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -6350,6 +7322,9 @@
       <c r="B24" t="s">
         <v>60</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -6358,6 +7333,9 @@
       <c r="B25" t="s">
         <v>66</v>
       </c>
+      <c r="C25" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -6366,6 +7344,9 @@
       <c r="B26" t="s">
         <v>69</v>
       </c>
+      <c r="C26" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -6374,6 +7355,9 @@
       <c r="B27" t="s">
         <v>57</v>
       </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -6415,6 +7399,9 @@
       <c r="B31" t="s">
         <v>64</v>
       </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
@@ -6423,6 +7410,9 @@
       <c r="B32" t="s">
         <v>56</v>
       </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -6431,6 +7421,9 @@
       <c r="B33" t="s">
         <v>65</v>
       </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
@@ -6450,6 +7443,9 @@
       <c r="B35" t="s">
         <v>60</v>
       </c>
+      <c r="C35" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -6458,6 +7454,9 @@
       <c r="B36" t="s">
         <v>64</v>
       </c>
+      <c r="C36" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -6465,6 +7464,9 @@
       </c>
       <c r="B37" t="s">
         <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F3EE6-2607-477F-8670-6C6E3C6E1634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598D187A-8E71-430C-9A29-AA434B883205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Samples" sheetId="3" r:id="rId2"/>
-    <sheet name="Progress" sheetId="4" r:id="rId3"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId4"/>
+    <sheet name="Photo Tracking" sheetId="5" r:id="rId2"/>
+    <sheet name="Samples" sheetId="3" r:id="rId3"/>
+    <sheet name="Progress" sheetId="4" r:id="rId4"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="93">
   <si>
     <t>Site</t>
   </si>
@@ -277,13 +278,43 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Temnothorax andrei</t>
+  </si>
+  <si>
+    <t>destroyed this one</t>
+  </si>
+  <si>
+    <t>Mov 1</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>green</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +324,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,12 +374,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="F233" sqref="F233"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4985,18 +5024,969 @@
         <v>29</v>
       </c>
     </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234" t="s">
+        <v>80</v>
+      </c>
+      <c r="C234" t="s">
+        <v>42</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>2</v>
+      </c>
+      <c r="B235" t="s">
+        <v>80</v>
+      </c>
+      <c r="C235" t="s">
+        <v>42</v>
+      </c>
+      <c r="D235" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s">
+        <v>80</v>
+      </c>
+      <c r="C236" t="s">
+        <v>42</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236">
+        <v>3</v>
+      </c>
+      <c r="F236" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237" t="s">
+        <v>83</v>
+      </c>
+      <c r="C237" t="s">
+        <v>42</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237">
+        <v>7</v>
+      </c>
+      <c r="F237" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238" t="s">
+        <v>83</v>
+      </c>
+      <c r="C238" t="s">
+        <v>42</v>
+      </c>
+      <c r="D238" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238">
+        <v>8</v>
+      </c>
+      <c r="F238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>2</v>
+      </c>
+      <c r="B239" t="s">
+        <v>83</v>
+      </c>
+      <c r="C239" t="s">
+        <v>42</v>
+      </c>
+      <c r="D239" t="s">
+        <v>25</v>
+      </c>
+      <c r="E239">
+        <v>9</v>
+      </c>
+      <c r="F239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>2</v>
+      </c>
+      <c r="B240" t="s">
+        <v>83</v>
+      </c>
+      <c r="C240" t="s">
+        <v>42</v>
+      </c>
+      <c r="D240" t="s">
+        <v>25</v>
+      </c>
+      <c r="E240">
+        <v>10</v>
+      </c>
+      <c r="F240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>3</v>
+      </c>
+      <c r="B241" t="s">
+        <v>38</v>
+      </c>
+      <c r="C241" t="s">
+        <v>42</v>
+      </c>
+      <c r="D241" t="s">
+        <v>25</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>38</v>
+      </c>
+      <c r="C242" t="s">
+        <v>42</v>
+      </c>
+      <c r="D242" t="s">
+        <v>25</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>38</v>
+      </c>
+      <c r="C243" t="s">
+        <v>42</v>
+      </c>
+      <c r="D243" t="s">
+        <v>25</v>
+      </c>
+      <c r="E243">
+        <v>3</v>
+      </c>
+      <c r="F243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244" t="s">
+        <v>38</v>
+      </c>
+      <c r="C244" t="s">
+        <v>42</v>
+      </c>
+      <c r="D244" t="s">
+        <v>25</v>
+      </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
+      <c r="F244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245" t="s">
+        <v>38</v>
+      </c>
+      <c r="C245" t="s">
+        <v>42</v>
+      </c>
+      <c r="D245" t="s">
+        <v>25</v>
+      </c>
+      <c r="E245">
+        <v>5</v>
+      </c>
+      <c r="F245" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="B246" t="s">
+        <v>38</v>
+      </c>
+      <c r="C246" t="s">
+        <v>42</v>
+      </c>
+      <c r="D246" t="s">
+        <v>25</v>
+      </c>
+      <c r="E246">
+        <v>6</v>
+      </c>
+      <c r="F246" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247" t="s">
+        <v>56</v>
+      </c>
+      <c r="C247" t="s">
+        <v>42</v>
+      </c>
+      <c r="D247" t="s">
+        <v>25</v>
+      </c>
+      <c r="E247">
+        <v>7</v>
+      </c>
+      <c r="F247" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248" t="s">
+        <v>56</v>
+      </c>
+      <c r="C248" t="s">
+        <v>42</v>
+      </c>
+      <c r="D248" t="s">
+        <v>25</v>
+      </c>
+      <c r="E248">
+        <v>8</v>
+      </c>
+      <c r="F248" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>56</v>
+      </c>
+      <c r="C249" t="s">
+        <v>42</v>
+      </c>
+      <c r="D249" t="s">
+        <v>25</v>
+      </c>
+      <c r="E249">
+        <v>9</v>
+      </c>
+      <c r="F249" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" t="s">
+        <v>42</v>
+      </c>
+      <c r="D250" t="s">
+        <v>25</v>
+      </c>
+      <c r="E250">
+        <v>10</v>
+      </c>
+      <c r="F250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>3</v>
+      </c>
+      <c r="B251" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" t="s">
+        <v>42</v>
+      </c>
+      <c r="D251" t="s">
+        <v>25</v>
+      </c>
+      <c r="E251">
+        <v>11</v>
+      </c>
+      <c r="F251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252" t="s">
+        <v>56</v>
+      </c>
+      <c r="C252" t="s">
+        <v>42</v>
+      </c>
+      <c r="D252" t="s">
+        <v>25</v>
+      </c>
+      <c r="E252">
+        <v>12</v>
+      </c>
+      <c r="F252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>2</v>
+      </c>
+      <c r="B253" t="s">
+        <v>60</v>
+      </c>
+      <c r="C253" t="s">
+        <v>39</v>
+      </c>
+      <c r="D253" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s">
+        <v>60</v>
+      </c>
+      <c r="C254" t="s">
+        <v>39</v>
+      </c>
+      <c r="D254" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254">
+        <v>2</v>
+      </c>
+      <c r="F254" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255" t="s">
+        <v>60</v>
+      </c>
+      <c r="C255" t="s">
+        <v>39</v>
+      </c>
+      <c r="D255" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255">
+        <v>3</v>
+      </c>
+      <c r="F255" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256" t="s">
+        <v>60</v>
+      </c>
+      <c r="C256" t="s">
+        <v>39</v>
+      </c>
+      <c r="D256" t="s">
+        <v>6</v>
+      </c>
+      <c r="E256">
+        <v>4</v>
+      </c>
+      <c r="F256" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257" t="s">
+        <v>60</v>
+      </c>
+      <c r="C257" t="s">
+        <v>39</v>
+      </c>
+      <c r="D257" t="s">
+        <v>33</v>
+      </c>
+      <c r="E257">
+        <v>5</v>
+      </c>
+      <c r="F257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258" t="s">
+        <v>60</v>
+      </c>
+      <c r="C258" t="s">
+        <v>39</v>
+      </c>
+      <c r="D258" t="s">
+        <v>33</v>
+      </c>
+      <c r="E258">
+        <v>6</v>
+      </c>
+      <c r="F258" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="B259" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" t="s">
+        <v>39</v>
+      </c>
+      <c r="D259" t="s">
+        <v>6</v>
+      </c>
+      <c r="E259">
+        <v>7</v>
+      </c>
+      <c r="F259" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260" t="s">
+        <v>80</v>
+      </c>
+      <c r="C260" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>2</v>
+      </c>
+      <c r="B261" t="s">
+        <v>46</v>
+      </c>
+      <c r="C261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>25</v>
+      </c>
+      <c r="E261">
+        <v>7</v>
+      </c>
+      <c r="F261" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>2</v>
+      </c>
+      <c r="B262" t="s">
+        <v>46</v>
+      </c>
+      <c r="C262" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" t="s">
+        <v>25</v>
+      </c>
+      <c r="E262">
+        <v>8</v>
+      </c>
+      <c r="F262" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>2</v>
+      </c>
+      <c r="B263" t="s">
+        <v>46</v>
+      </c>
+      <c r="C263" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" t="s">
+        <v>25</v>
+      </c>
+      <c r="E263">
+        <v>9</v>
+      </c>
+      <c r="F263" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>2</v>
+      </c>
+      <c r="B264" t="s">
+        <v>46</v>
+      </c>
+      <c r="C264" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" t="s">
+        <v>25</v>
+      </c>
+      <c r="E264">
+        <v>10</v>
+      </c>
+      <c r="F264" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265" t="s">
+        <v>46</v>
+      </c>
+      <c r="C265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" t="s">
+        <v>25</v>
+      </c>
+      <c r="E265">
+        <v>11</v>
+      </c>
+      <c r="F265" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
+        <v>46</v>
+      </c>
+      <c r="C266" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" t="s">
+        <v>25</v>
+      </c>
+      <c r="E266">
+        <v>12</v>
+      </c>
+      <c r="F266" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>78</v>
+      </c>
+      <c r="C267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" t="s">
+        <v>25</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>78</v>
+      </c>
+      <c r="C268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" t="s">
+        <v>25</v>
+      </c>
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>3</v>
+      </c>
+      <c r="B269" t="s">
+        <v>78</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" t="s">
+        <v>25</v>
+      </c>
+      <c r="E269">
+        <v>3</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G269" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>3</v>
+      </c>
+      <c r="B270" t="s">
+        <v>78</v>
+      </c>
+      <c r="C270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" t="s">
+        <v>25</v>
+      </c>
+      <c r="E270">
+        <v>4</v>
+      </c>
+      <c r="F270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>3</v>
+      </c>
+      <c r="B271" t="s">
+        <v>78</v>
+      </c>
+      <c r="C271" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" t="s">
+        <v>25</v>
+      </c>
+      <c r="E271">
+        <v>5</v>
+      </c>
+      <c r="F271" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>3</v>
+      </c>
+      <c r="B272" t="s">
+        <v>78</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" t="s">
+        <v>25</v>
+      </c>
+      <c r="E272">
+        <v>6</v>
+      </c>
+      <c r="F272" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>3</v>
+      </c>
+      <c r="B273" t="s">
+        <v>78</v>
+      </c>
+      <c r="C273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" t="s">
+        <v>25</v>
+      </c>
+      <c r="E273">
+        <v>7</v>
+      </c>
+      <c r="F273" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14C2E1B-6B6A-41C4-9F90-6047F1F30A71}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE93E47B-FE66-4DDE-8775-2EAA6F3F5A82}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7046,11 +8036,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D154C06-54F5-4C5A-8BB8-E0C52DF05933}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -7487,6 +8477,9 @@
       <c r="B39" t="s">
         <v>71</v>
       </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -7514,6 +8507,9 @@
       <c r="B42" t="s">
         <v>63</v>
       </c>
+      <c r="C42" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -7522,6 +8518,9 @@
       <c r="B43" t="s">
         <v>67</v>
       </c>
+      <c r="C43" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -7530,6 +8529,9 @@
       <c r="B44" t="s">
         <v>56</v>
       </c>
+      <c r="C44" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -7538,6 +8540,9 @@
       <c r="B45" t="s">
         <v>57</v>
       </c>
+      <c r="C45" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
@@ -7557,6 +8562,9 @@
       <c r="B47" t="s">
         <v>74</v>
       </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -7576,6 +8584,9 @@
       <c r="B49" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="C49" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
@@ -7584,6 +8595,9 @@
       <c r="B50" t="s">
         <v>60</v>
       </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
@@ -7592,6 +8606,9 @@
       <c r="B51" t="s">
         <v>56</v>
       </c>
+      <c r="C51" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
@@ -7621,6 +8638,9 @@
       </c>
       <c r="B54" t="s">
         <v>63</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -7674,11 +8694,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598D187A-8E71-430C-9A29-AA434B883205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91150F3-EDD3-4F42-948C-1AC4E5FE7302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A272" sqref="A272"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B138" t="s">
         <v>46</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B139" t="s">
         <v>46</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
         <v>46</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B141" t="s">
         <v>46</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
         <v>46</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
         <v>46</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144" t="s">
         <v>78</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B145" t="s">
         <v>78</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B146" t="s">
         <v>78</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B147" t="s">
         <v>78</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
         <v>78</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B149" t="s">
         <v>78</v>
@@ -8698,7 +8698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91150F3-EDD3-4F42-948C-1AC4E5FE7302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8534AE62-4D3A-44F4-B638-D3D3F14E4B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Photo Tracking" sheetId="5" r:id="rId2"/>
-    <sheet name="Samples" sheetId="3" r:id="rId3"/>
-    <sheet name="Progress" sheetId="4" r:id="rId4"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId5"/>
+    <sheet name="Samples" sheetId="3" r:id="rId2"/>
+    <sheet name="Progress" sheetId="4" r:id="rId3"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="85">
   <si>
     <t>Site</t>
   </si>
@@ -284,30 +283,6 @@
   </si>
   <si>
     <t>destroyed this one</t>
-  </si>
-  <si>
-    <t>Mov 1</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>green</t>
   </si>
 </sst>
 </file>
@@ -695,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="E279" sqref="E279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5827,6 +5802,46 @@
         <v>26</v>
       </c>
     </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>3</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>58</v>
+      </c>
+      <c r="D274" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>3</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" t="s">
+        <v>58</v>
+      </c>
+      <c r="D275" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="F275" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5835,158 +5850,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14C2E1B-6B6A-41C4-9F90-6047F1F30A71}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE93E47B-FE66-4DDE-8775-2EAA6F3F5A82}">
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8036,7 +7904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D154C06-54F5-4C5A-8BB8-E0C52DF05933}">
   <dimension ref="A1:D59"/>
   <sheetViews>
@@ -8694,7 +8562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>

--- a/raw data/Slide_ID.xlsx
+++ b/raw data/Slide_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Projects\ant_habitat_coexistence\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8534AE62-4D3A-44F4-B638-D3D3F14E4B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D9FA5-3DB9-4953-B708-0A291417361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="87">
   <si>
     <t>Site</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>destroyed this one</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>these 2 are on a third slide</t>
   </si>
 </sst>
 </file>
@@ -670,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="E279" sqref="E279"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="H272" sqref="H272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,7 +687,10 @@
     <col min="2" max="2" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -698,7 +707,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -715,7 +727,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -732,7 +747,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -749,7 +767,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -766,7 +787,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -783,7 +807,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -800,7 +827,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -817,7 +847,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -834,7 +867,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -851,7 +887,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -868,7 +907,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -885,7 +927,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -902,7 +947,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -919,7 +967,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -936,7 +987,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -953,7 +1007,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -970,7 +1027,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -987,7 +1047,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1067,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -1021,7 +1087,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -1038,7 +1107,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -1055,7 +1127,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -1072,7 +1147,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1167,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -1106,7 +1187,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
@@ -1123,7 +1207,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1227,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1247,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1267,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1287,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1307,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -1226,6 +1328,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -1243,6 +1348,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -1260,6 +1368,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -1277,6 +1388,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
       <c r="B36" t="s">
         <v>14</v>
       </c>
@@ -1294,6 +1408,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
@@ -1554,6 +1671,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1</v>
+      </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -1571,6 +1691,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
@@ -1588,6 +1711,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1</v>
+      </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
@@ -1605,6 +1731,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1</v>
+      </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
@@ -1622,6 +1751,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1</v>
+      </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
@@ -1639,6 +1771,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1</v>
+      </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
@@ -1656,6 +1791,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1</v>
+      </c>
       <c r="B56" t="s">
         <v>14</v>
       </c>
@@ -1673,6 +1811,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1</v>
+      </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
@@ -1690,6 +1831,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1</v>
+      </c>
       <c r="B58" t="s">
         <v>14</v>
       </c>
@@ -1707,6 +1851,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1</v>
+      </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
@@ -1724,6 +1871,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1</v>
+      </c>
       <c r="B60" t="s">
         <v>14</v>
       </c>
@@ -1741,6 +1891,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1</v>
+      </c>
       <c r="B61" t="s">
         <v>14</v>
       </c>
@@ -1758,6 +1911,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1</v>
+      </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
@@ -1775,6 +1931,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1</v>
+      </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
@@ -1792,6 +1951,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1</v>
+      </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
@@ -1808,7 +1970,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1</v>
+      </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1990,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1</v>
+      </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
@@ -1842,7 +2010,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1</v>
+      </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
@@ -1859,7 +2030,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1</v>
+      </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
@@ -1876,7 +2050,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1</v>
+      </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
@@ -1893,7 +2070,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1</v>
+      </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
@@ -1910,7 +2090,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1</v>
+      </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
@@ -1927,7 +2110,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1</v>
+      </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
@@ -1944,7 +2130,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1</v>
+      </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
@@ -1961,7 +2150,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1</v>
+      </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +2170,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1</v>
+      </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
@@ -1995,7 +2190,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1</v>
+      </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2210,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1</v>
+      </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
@@ -2029,7 +2230,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1</v>
+      </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2250,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1</v>
+      </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
@@ -2063,7 +2270,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1</v>
+      </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
@@ -2080,7 +2290,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1</v>
+      </c>
       <c r="B81" t="s">
         <v>14</v>
       </c>
@@ -2097,7 +2310,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>1</v>
+      </c>
       <c r="B82" t="s">
         <v>14</v>
       </c>
@@ -2114,7 +2330,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>1</v>
+      </c>
       <c r="B83" t="s">
         <v>14</v>
       </c>
@@ -2131,7 +2350,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>1</v>
+      </c>
       <c r="B84" t="s">
         <v>14</v>
       </c>
@@ -2148,7 +2370,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1</v>
+      </c>
       <c r="B85" t="s">
         <v>14</v>
       </c>
@@ -2165,7 +2390,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>1</v>
+      </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
@@ -2182,7 +2410,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>1</v>
+      </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
@@ -2199,7 +2430,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>1</v>
+      </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2450,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>1</v>
+      </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
@@ -2233,7 +2470,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>1</v>
+      </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
@@ -2250,7 +2490,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>1</v>
+      </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
@@ -2267,7 +2510,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>1</v>
+      </c>
       <c r="B92" t="s">
         <v>14</v>
       </c>
@@ -2284,7 +2530,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>1</v>
+      </c>
       <c r="B93" t="s">
         <v>14</v>
       </c>
@@ -2301,7 +2550,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>1</v>
+      </c>
       <c r="B94" t="s">
         <v>14</v>
       </c>
@@ -2318,7 +2570,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>1</v>
+      </c>
       <c r="B95" t="s">
         <v>14</v>
       </c>
@@ -2335,7 +2590,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>1</v>
+      </c>
       <c r="B96" t="s">
         <v>14</v>
       </c>
@@ -2352,7 +2610,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>1</v>
+      </c>
       <c r="B97" t="s">
         <v>14</v>
       </c>
@@ -2369,7 +2630,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>1</v>
+      </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
@@ -2383,13 +2647,16 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G98" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>1</v>
+      </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
@@ -2406,7 +2673,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>1</v>
+      </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
@@ -2423,7 +2693,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>1</v>
+      </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
@@ -2437,7 +2710,7 @@
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G101" t="s">
         <v>47</v>
@@ -2446,7 +2719,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>1</v>
+      </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
@@ -2463,7 +2739,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>1</v>
+      </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2759,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>1</v>
+      </c>
       <c r="B104" t="s">
         <v>46</v>
       </c>
@@ -2497,7 +2779,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>1</v>
+      </c>
       <c r="B105" t="s">
         <v>46</v>
       </c>
@@ -2514,7 +2799,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>1</v>
+      </c>
       <c r="B106" t="s">
         <v>46</v>
       </c>
@@ -2531,7 +2819,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>1</v>
+      </c>
       <c r="B107" t="s">
         <v>46</v>
       </c>
@@ -2548,7 +2839,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>1</v>
+      </c>
       <c r="B108" t="s">
         <v>46</v>
       </c>
@@ -2565,7 +2859,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>1</v>
+      </c>
       <c r="B109" t="s">
         <v>46</v>
       </c>
@@ -2582,7 +2879,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2</v>
+      </c>
       <c r="B110" t="s">
         <v>55</v>
       </c>
@@ -2602,7 +2902,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2</v>
+      </c>
       <c r="B111" t="s">
         <v>55</v>
       </c>
@@ -2619,7 +2922,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2</v>
+      </c>
       <c r="B112" t="s">
         <v>55</v>
       </c>
@@ -2637,6 +2943,9 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2</v>
+      </c>
       <c r="B113" t="s">
         <v>55</v>
       </c>
@@ -2654,6 +2963,9 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2</v>
+      </c>
       <c r="B114" t="s">
         <v>55</v>
       </c>
@@ -2671,6 +2983,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2</v>
+      </c>
       <c r="B115" t="s">
         <v>55</v>
       </c>
@@ -2688,6 +3003,9 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2</v>
+      </c>
       <c r="B116" t="s">
         <v>54</v>
       </c>
@@ -2705,58 +3023,103 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>46</v>
+      </c>
       <c r="C117" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D117" t="s">
         <v>25</v>
       </c>
       <c r="E117">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>46</v>
+      </c>
       <c r="C118" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
         <v>25</v>
       </c>
       <c r="E118">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>46</v>
+      </c>
       <c r="C119" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D119" t="s">
         <v>25</v>
       </c>
       <c r="E119">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="F119" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>46</v>
+      </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D120" t="s">
         <v>25</v>
       </c>
       <c r="E120">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>46</v>
+      </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -2770,13 +3133,13 @@
         <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -2784,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C123" t="s">
         <v>20</v>
@@ -2793,10 +3156,10 @@
         <v>25</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -2804,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C124" t="s">
         <v>20</v>
@@ -2813,10 +3176,10 @@
         <v>25</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -2824,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
@@ -2833,18 +3196,18 @@
         <v>25</v>
       </c>
       <c r="E125">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
@@ -2853,18 +3216,18 @@
         <v>6</v>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C127" t="s">
         <v>20</v>
@@ -2873,77 +3236,77 @@
         <v>6</v>
       </c>
       <c r="E127">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C128" t="s">
         <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E128">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C129" t="s">
         <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E129">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C130" t="s">
         <v>20</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E130">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>3</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C131" t="s">
@@ -2953,30 +3316,30 @@
         <v>6</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>3</v>
       </c>
-      <c r="B132" t="s">
-        <v>78</v>
+      <c r="B132" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C132" t="s">
         <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F132" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -2984,19 +3347,19 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -3004,19 +3367,19 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -3024,59 +3387,59 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D135" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>3</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>78</v>
+      <c r="B136" t="s">
+        <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D136" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E136">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>3</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>80</v>
+      <c r="B137" t="s">
+        <v>46</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E137">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -3093,10 +3456,10 @@
         <v>33</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -3104,19 +3467,19 @@
         <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C139" t="s">
         <v>41</v>
       </c>
       <c r="D139" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -3124,16 +3487,16 @@
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C140" t="s">
         <v>41</v>
       </c>
       <c r="D140" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
@@ -3144,19 +3507,19 @@
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C141" t="s">
         <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -3164,19 +3527,19 @@
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C142" t="s">
         <v>41</v>
       </c>
       <c r="D142" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -3184,19 +3547,19 @@
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C143" t="s">
         <v>41</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E143">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -3213,110 +3576,110 @@
         <v>6</v>
       </c>
       <c r="E144">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C145" t="s">
         <v>41</v>
       </c>
       <c r="D145" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E145">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C146" t="s">
         <v>41</v>
       </c>
       <c r="D146" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E146">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C147" t="s">
         <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E147">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B148" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C148" t="s">
         <v>41</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E148">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
         <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E149">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -3333,10 +3696,10 @@
         <v>25</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -3344,19 +3707,19 @@
         <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C151" t="s">
         <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -3364,19 +3727,19 @@
         <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C152" t="s">
         <v>41</v>
       </c>
       <c r="D152" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E152">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -3384,19 +3747,19 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C153" t="s">
         <v>41</v>
       </c>
       <c r="D153" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E153">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -3404,19 +3767,19 @@
         <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C154" t="s">
         <v>41</v>
       </c>
       <c r="D154" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E154">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -3424,19 +3787,19 @@
         <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C155" t="s">
         <v>41</v>
       </c>
       <c r="D155" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E155">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -3453,110 +3816,110 @@
         <v>6</v>
       </c>
       <c r="E156">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C157" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D157" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E157">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C158" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D158" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E158">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C159" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D159" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E159">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>46</v>
+      </c>
+      <c r="C160" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160">
         <v>4</v>
       </c>
-      <c r="B160" t="s">
-        <v>56</v>
-      </c>
-      <c r="C160" t="s">
-        <v>41</v>
-      </c>
-      <c r="D160" t="s">
-        <v>6</v>
-      </c>
-      <c r="E160">
-        <v>11</v>
-      </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C161" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D161" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E161">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -3573,10 +3936,10 @@
         <v>25</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F162" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -3584,7 +3947,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C163" t="s">
         <v>34</v>
@@ -3593,10 +3956,10 @@
         <v>25</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -3604,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C164" t="s">
         <v>34</v>
@@ -3613,10 +3976,10 @@
         <v>25</v>
       </c>
       <c r="E164">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F164" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -3624,7 +3987,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C165" t="s">
         <v>34</v>
@@ -3633,10 +3996,10 @@
         <v>25</v>
       </c>
       <c r="E165">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F165" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -3644,7 +4007,7 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C166" t="s">
         <v>34</v>
@@ -3653,10 +4016,10 @@
         <v>25</v>
       </c>
       <c r="E166">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -3664,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C167" t="s">
         <v>34</v>
@@ -3673,10 +4036,10 @@
         <v>25</v>
       </c>
       <c r="E167">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -3693,110 +4056,110 @@
         <v>25</v>
       </c>
       <c r="E168">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C169" t="s">
         <v>34</v>
       </c>
       <c r="D169" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E169">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C170" t="s">
         <v>34</v>
       </c>
       <c r="D170" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E170">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C171" t="s">
         <v>34</v>
       </c>
       <c r="D171" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E171">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B172" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C172" t="s">
         <v>34</v>
       </c>
       <c r="D172" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E172">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C173" t="s">
         <v>34</v>
       </c>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E173">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -3813,7 +4176,7 @@
         <v>6</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F174" t="s">
         <v>12</v>
@@ -3824,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C175" t="s">
         <v>34</v>
@@ -3833,10 +4196,10 @@
         <v>6</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F175" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -3844,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="B176" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C176" t="s">
         <v>34</v>
@@ -3853,10 +4216,10 @@
         <v>6</v>
       </c>
       <c r="E176">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -3864,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C177" t="s">
         <v>34</v>
@@ -3873,10 +4236,10 @@
         <v>6</v>
       </c>
       <c r="E177">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -3884,7 +4247,7 @@
         <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C178" t="s">
         <v>34</v>
@@ -3893,10 +4256,10 @@
         <v>6</v>
       </c>
       <c r="E178">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -3904,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="B179" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C179" t="s">
         <v>34</v>
@@ -3913,10 +4276,10 @@
         <v>6</v>
       </c>
       <c r="E179">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -3933,18 +4296,18 @@
         <v>6</v>
       </c>
       <c r="E180">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C181" t="s">
         <v>34</v>
@@ -3953,90 +4316,90 @@
         <v>6</v>
       </c>
       <c r="E181">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C182" t="s">
         <v>34</v>
       </c>
       <c r="D182" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E182">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C183" t="s">
         <v>34</v>
       </c>
       <c r="D183" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E183">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C184" t="s">
         <v>34</v>
       </c>
       <c r="D184" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E184">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C185" t="s">
         <v>34</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E185">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -4044,19 +4407,19 @@
         <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C186" t="s">
         <v>34</v>
       </c>
       <c r="D186" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -4064,19 +4427,19 @@
         <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C187" t="s">
         <v>34</v>
       </c>
       <c r="D187" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -4093,87 +4456,87 @@
         <v>25</v>
       </c>
       <c r="E188">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D189" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E189">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D190" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E190">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D191" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E191">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>46</v>
+      </c>
+      <c r="C192" t="s">
+        <v>44</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192">
         <v>4</v>
-      </c>
-      <c r="B192" t="s">
-        <v>55</v>
-      </c>
-      <c r="C192" t="s">
-        <v>34</v>
-      </c>
-      <c r="D192" t="s">
-        <v>25</v>
-      </c>
-      <c r="E192">
-        <v>11</v>
       </c>
       <c r="F192" t="s">
         <v>15</v>
@@ -4181,22 +4544,22 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D193" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E193">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
@@ -4213,10 +4576,10 @@
         <v>6</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -4224,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C195" t="s">
         <v>44</v>
@@ -4233,10 +4596,10 @@
         <v>6</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F195" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -4244,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C196" t="s">
         <v>44</v>
@@ -4253,10 +4616,10 @@
         <v>6</v>
       </c>
       <c r="E196">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -4264,19 +4627,19 @@
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C197" t="s">
         <v>44</v>
       </c>
       <c r="D197" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E197">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F197" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -4284,19 +4647,19 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C198" t="s">
         <v>44</v>
       </c>
       <c r="D198" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E198">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -4304,19 +4667,19 @@
         <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D199" t="s">
         <v>6</v>
       </c>
       <c r="E199">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -4324,19 +4687,19 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D200" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E200">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -4344,19 +4707,19 @@
         <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D201" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E201">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -4364,19 +4727,19 @@
         <v>2</v>
       </c>
       <c r="B202" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C202" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D202" t="s">
         <v>25</v>
       </c>
       <c r="E202">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -4384,19 +4747,19 @@
         <v>2</v>
       </c>
       <c r="B203" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C203" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D203" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E203">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -4404,19 +4767,19 @@
         <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C204" t="s">
         <v>58</v>
       </c>
       <c r="D204" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F204" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -4424,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C205" t="s">
         <v>58</v>
@@ -4433,10 +4796,10 @@
         <v>25</v>
       </c>
       <c r="E205">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -4444,19 +4807,19 @@
         <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C206" t="s">
         <v>58</v>
       </c>
       <c r="D206" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E206">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -4464,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="B207" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C207" t="s">
         <v>58</v>
@@ -4473,10 +4836,10 @@
         <v>25</v>
       </c>
       <c r="E207">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F207" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
@@ -4484,19 +4847,19 @@
         <v>2</v>
       </c>
       <c r="B208" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C208" t="s">
         <v>58</v>
       </c>
       <c r="D208" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E208">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
@@ -4504,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="B209" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C209" t="s">
         <v>58</v>
@@ -4513,10 +4876,10 @@
         <v>33</v>
       </c>
       <c r="E209">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
@@ -4530,13 +4893,13 @@
         <v>58</v>
       </c>
       <c r="D210" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E210">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
@@ -4544,19 +4907,19 @@
         <v>2</v>
       </c>
       <c r="B211" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C211" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D211" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -4564,19 +4927,19 @@
         <v>2</v>
       </c>
       <c r="B212" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C212" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D212" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E212">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F212" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
@@ -4584,19 +4947,19 @@
         <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C213" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D213" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F213" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -4604,19 +4967,19 @@
         <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C214" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D214" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F214" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -4624,19 +4987,19 @@
         <v>2</v>
       </c>
       <c r="B215" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C215" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D215" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F215" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
@@ -4653,10 +5016,10 @@
         <v>6</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F216" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -4664,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -4673,10 +5036,10 @@
         <v>6</v>
       </c>
       <c r="E217">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F217" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -4684,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="B218" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -4693,10 +5056,10 @@
         <v>6</v>
       </c>
       <c r="E218">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
@@ -4704,7 +5067,7 @@
         <v>2</v>
       </c>
       <c r="B219" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -4713,10 +5076,10 @@
         <v>6</v>
       </c>
       <c r="E219">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
@@ -4724,19 +5087,19 @@
         <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
       </c>
       <c r="D220" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E220">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
@@ -4744,19 +5107,19 @@
         <v>2</v>
       </c>
       <c r="B221" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
       </c>
       <c r="D221" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E221">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -4770,61 +5133,61 @@
         <v>28</v>
       </c>
       <c r="D222" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E222">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B223" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
       </c>
       <c r="D223" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E223">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B224" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
       </c>
       <c r="D224" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E224">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F224" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -4833,18 +5196,18 @@
         <v>33</v>
       </c>
       <c r="E225">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F225" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -4853,18 +5216,18 @@
         <v>33</v>
       </c>
       <c r="E226">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -4873,10 +5236,10 @@
         <v>33</v>
       </c>
       <c r="E227">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F227" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
@@ -4893,110 +5256,110 @@
         <v>33</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F228" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C229" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D229" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B230" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C230" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D230" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F230" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
+        <v>80</v>
+      </c>
+      <c r="C231" t="s">
+        <v>42</v>
+      </c>
+      <c r="D231" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231">
         <v>3</v>
       </c>
-      <c r="B231" t="s">
-        <v>54</v>
-      </c>
-      <c r="C231" t="s">
-        <v>28</v>
-      </c>
-      <c r="D231" t="s">
-        <v>33</v>
-      </c>
-      <c r="E231">
-        <v>4</v>
-      </c>
       <c r="F231" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B232" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D232" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E232">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B233" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D233" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E233">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
@@ -5004,19 +5367,19 @@
         <v>2</v>
       </c>
       <c r="B234" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C234" t="s">
         <v>42</v>
       </c>
       <c r="D234" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
@@ -5024,87 +5387,87 @@
         <v>2</v>
       </c>
       <c r="B235" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C235" t="s">
         <v>42</v>
       </c>
       <c r="D235" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E235">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="C236" t="s">
         <v>42</v>
       </c>
       <c r="D236" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B237" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C237" t="s">
         <v>42</v>
       </c>
       <c r="D237" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E237">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F237" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B238" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C238" t="s">
         <v>42</v>
       </c>
       <c r="D238" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E238">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F238" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C239" t="s">
         <v>42</v>
@@ -5113,18 +5476,18 @@
         <v>25</v>
       </c>
       <c r="E239">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F239" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B240" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C240" t="s">
         <v>42</v>
@@ -5133,10 +5496,10 @@
         <v>25</v>
       </c>
       <c r="E240">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F240" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -5153,10 +5516,10 @@
         <v>25</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F241" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
@@ -5164,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="B242" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C242" t="s">
         <v>42</v>
@@ -5173,10 +5536,10 @@
         <v>25</v>
       </c>
       <c r="E242">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F242" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -5184,7 +5547,7 @@
         <v>3</v>
       </c>
       <c r="B243" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C243" t="s">
         <v>42</v>
@@ -5193,10 +5556,10 @@
         <v>25</v>
       </c>
       <c r="E243">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F243" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
@@ -5204,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="B244" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C244" t="s">
         <v>42</v>
@@ -5213,10 +5576,10 @@
         <v>25</v>
       </c>
       <c r="E244">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F244" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
@@ -5224,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="B245" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C245" t="s">
         <v>42</v>
@@ -5233,10 +5596,10 @@
         <v>25</v>
       </c>
       <c r="E245">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
@@ -5244,7 +5607,7 @@
         <v>3</v>
       </c>
       <c r="B246" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C246" t="s">
         <v>42</v>
@@ -5253,10 +5616,10 @@
         <v>25</v>
       </c>
       <c r="E246">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F246" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
@@ -5273,107 +5636,107 @@
         <v>25</v>
       </c>
       <c r="E247">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F247" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B248" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C248" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D248" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E248">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F248" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B249" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C249" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D249" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E249">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F249" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250">
+        <v>2</v>
+      </c>
+      <c r="B250" t="s">
+        <v>60</v>
+      </c>
+      <c r="C250" t="s">
+        <v>39</v>
+      </c>
+      <c r="D250" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250">
         <v>3</v>
       </c>
-      <c r="B250" t="s">
-        <v>56</v>
-      </c>
-      <c r="C250" t="s">
-        <v>42</v>
-      </c>
-      <c r="D250" t="s">
-        <v>25</v>
-      </c>
-      <c r="E250">
-        <v>10</v>
-      </c>
       <c r="F250" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B251" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C251" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D251" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E251">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F251" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B252" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C252" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D252" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E252">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F252" t="s">
         <v>13</v>
@@ -5390,13 +5753,13 @@
         <v>39</v>
       </c>
       <c r="D253" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F253" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
@@ -5404,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="B254" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C254" t="s">
         <v>39</v>
@@ -5413,30 +5776,30 @@
         <v>6</v>
       </c>
       <c r="E254">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>2</v>
       </c>
       <c r="B255" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C255" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D255" t="s">
         <v>6</v>
       </c>
       <c r="E255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
@@ -5444,102 +5807,102 @@
         <v>2</v>
       </c>
       <c r="B256" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C256" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D256" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E256">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F256" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>2</v>
       </c>
       <c r="B257" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C257" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D257" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E257">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F257" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>2</v>
       </c>
       <c r="B258" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C258" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D258" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E258">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F258" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>2</v>
       </c>
       <c r="B259" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C259" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D259" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E259">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>2</v>
       </c>
       <c r="B260" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C260" t="s">
         <v>8</v>
       </c>
       <c r="D260" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F260" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>2</v>
       </c>
@@ -5553,18 +5916,18 @@
         <v>25</v>
       </c>
       <c r="E261">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F261" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B262" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C262" t="s">
         <v>8</v>
@@ -5573,18 +5936,18 @@
         <v>25</v>
       </c>
       <c r="E262">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F262" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B263" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C263" t="s">
         <v>8</v>
@@ -5593,18 +5956,18 @@
         <v>25</v>
       </c>
       <c r="E263">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F263" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B264" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C264" t="s">
         <v>8</v>
@@ -5613,18 +5976,21 @@
         <v>25</v>
       </c>
       <c r="E264">
-        <v>10</v>
-      </c>
-      <c r="F264" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B265" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C265" t="s">
         <v>8</v>
@@ -5633,18 +5999,18 @@
         <v>25</v>
       </c>
       <c r="E265">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F265" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B266" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C266" t="s">
         <v>8</v>
@@ -5653,13 +6019,13 @@
         <v>25</v>
       </c>
       <c r="E266">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F266" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>3</v>
       </c>
@@ -5673,13 +6039,13 @@
         <v>25</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F267" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>3</v>
       </c>
@@ -5693,153 +6059,53 @@
         <v>25</v>
       </c>
       <c r="E268">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F268" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>3</v>
       </c>
       <c r="B269" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D269" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E269">
-        <v>3</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G269" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>3</v>
       </c>
       <c r="B270" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D270" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E270">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F270" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A271">
-        <v>3</v>
-      </c>
-      <c r="B271" t="s">
-        <v>78</v>
-      </c>
-      <c r="C271" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" t="s">
-        <v>25</v>
-      </c>
-      <c r="E271">
-        <v>5</v>
-      </c>
-      <c r="F271" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A272">
-        <v>3</v>
-      </c>
-      <c r="B272" t="s">
-        <v>78</v>
-      </c>
-      <c r="C272" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" t="s">
-        <v>25</v>
-      </c>
-      <c r="E272">
-        <v>6</v>
-      </c>
-      <c r="F272" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A273">
-        <v>3</v>
-      </c>
-      <c r="B273" t="s">
-        <v>78</v>
-      </c>
-      <c r="C273" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" t="s">
-        <v>25</v>
-      </c>
-      <c r="E273">
-        <v>7</v>
-      </c>
-      <c r="F273" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A274">
-        <v>3</v>
-      </c>
-      <c r="B274" t="s">
-        <v>7</v>
-      </c>
-      <c r="C274" t="s">
-        <v>58</v>
-      </c>
-      <c r="D274" t="s">
-        <v>6</v>
-      </c>
-      <c r="E274">
-        <v>1</v>
-      </c>
-      <c r="F274" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A275">
-        <v>3</v>
-      </c>
-      <c r="B275" t="s">
-        <v>7</v>
-      </c>
-      <c r="C275" t="s">
-        <v>58</v>
-      </c>
-      <c r="D275" t="s">
-        <v>6</v>
-      </c>
-      <c r="E275">
-        <v>2</v>
-      </c>
-      <c r="F275" t="s">
         <v>31</v>
+      </c>
+      <c r="H270" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
